--- a/Document/Data/Effect/Effect.xlsx
+++ b/Document/Data/Effect/Effect.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B18A9-58D7-43C4-BA08-52FF8F203A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4029EC-27A1-4C07-A9D0-17B53D7CA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="4365" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ability" sheetId="12" r:id="rId1"/>
+    <sheet name="Effect" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Document/Data/Effect/Effect.xlsx
+++ b/Document/Data/Effect/Effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4029EC-27A1-4C07-A9D0-17B53D7CA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D8BDE-4307-4038-9E43-825D4103A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Effect" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>EffectTick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +471,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -541,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
